--- a/datos/embargo_bienes_18_19.xlsx
+++ b/datos/embargo_bienes_18_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5139e4ce12c5013/Desktop/proyecto practica/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{C826AD8B-2D49-4F5C-AC36-F75C6D49E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E021933-3C49-4FFC-A9D5-6ADEC64D203F}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{C826AD8B-2D49-4F5C-AC36-F75C6D49E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCFC807-ED10-4B3F-88A4-E16DBD197486}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95CD67FF-B2A5-4510-A704-867DA876F828}"/>
   </bookViews>
@@ -378,10 +378,6 @@
     <t>Tipo Doc</t>
   </si>
   <si>
-    <t>Domento
-Identidad</t>
-  </si>
-  <si>
     <t>Valor_Total
 de_la_Obligacion</t>
   </si>
@@ -1858,6 +1854,9 @@
   </si>
   <si>
     <t>280-51309</t>
+  </si>
+  <si>
+    <t>Documento</t>
   </si>
 </sst>
 </file>
@@ -2133,6 +2132,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2435,7 +2438,7 @@
   <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,43 +2471,43 @@
         <v>112</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="I1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>137</v>
-      </c>
       <c r="K1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>137</v>
-      </c>
       <c r="M1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="24" t="s">
-        <v>137</v>
-      </c>
       <c r="O1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2512,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -2527,16 +2530,16 @@
         <v>587670</v>
       </c>
       <c r="G2" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>201</v>
-      </c>
       <c r="I2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
@@ -2553,16 +2556,16 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>203</v>
-      </c>
       <c r="I3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -2576,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -2591,16 +2594,16 @@
         <v>1102063.5</v>
       </c>
       <c r="G4" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>205</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -2617,16 +2620,16 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -2643,16 +2646,16 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>208</v>
-      </c>
       <c r="I6" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -2681,16 +2684,16 @@
         <v>2165856</v>
       </c>
       <c r="G7" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>210</v>
-      </c>
       <c r="I7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -2719,16 +2722,16 @@
         <v>1106743.5</v>
       </c>
       <c r="G8" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="I8" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -2757,16 +2760,16 @@
         <v>1106562</v>
       </c>
       <c r="G9" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>216</v>
-      </c>
       <c r="I9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -2795,16 +2798,16 @@
         <v>590166</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>218</v>
-      </c>
       <c r="I10" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -2833,16 +2836,16 @@
         <v>2207557.5</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>220</v>
-      </c>
       <c r="I11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -2871,16 +2874,16 @@
         <v>1102063.5</v>
       </c>
       <c r="G12" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>222</v>
-      </c>
       <c r="I12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -2909,16 +2912,16 @@
         <v>3306141</v>
       </c>
       <c r="G13" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>224</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -2947,22 +2950,22 @@
         <v>588583.5</v>
       </c>
       <c r="G14" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>226</v>
-      </c>
       <c r="I14" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="L14" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -2977,16 +2980,16 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>228</v>
-      </c>
       <c r="I15" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -3017,10 +3020,10 @@
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -3049,16 +3052,16 @@
         <v>588355.5</v>
       </c>
       <c r="G17" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>230</v>
-      </c>
       <c r="I17" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -3089,16 +3092,16 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="K18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -3125,16 +3128,16 @@
         <v>1103596.5</v>
       </c>
       <c r="G19" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="I19" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -3163,16 +3166,16 @@
         <v>1539900</v>
       </c>
       <c r="G20" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>234</v>
-      </c>
       <c r="I20" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -3201,16 +3204,16 @@
         <v>1103778</v>
       </c>
       <c r="G21" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>236</v>
-      </c>
       <c r="I21" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -3239,16 +3242,16 @@
         <v>1103349</v>
       </c>
       <c r="G22" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="I22" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -3265,16 +3268,16 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="H23" s="34" t="s">
-        <v>240</v>
-      </c>
       <c r="I23" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -3291,16 +3294,16 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="I24" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -3317,16 +3320,16 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="H25" s="34" t="s">
-        <v>244</v>
-      </c>
       <c r="I25" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -3343,16 +3346,16 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>246</v>
-      </c>
       <c r="I26" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -3369,16 +3372,16 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>248</v>
-      </c>
       <c r="I27" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -3395,16 +3398,16 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="H28" s="33" t="s">
-        <v>250</v>
-      </c>
       <c r="I28" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -3421,16 +3424,16 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>252</v>
-      </c>
       <c r="I29" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -3447,16 +3450,16 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="H30" s="33" t="s">
-        <v>254</v>
-      </c>
       <c r="I30" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
@@ -3473,16 +3476,16 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>256</v>
-      </c>
       <c r="I31" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
@@ -3499,16 +3502,16 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="H32" s="33" t="s">
-        <v>258</v>
-      </c>
       <c r="I32" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
@@ -3525,16 +3528,16 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>260</v>
-      </c>
       <c r="I33" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -3551,16 +3554,16 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="H34" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>262</v>
-      </c>
       <c r="I34" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -3577,16 +3580,16 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>264</v>
-      </c>
       <c r="I35" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
@@ -3615,16 +3618,16 @@
         <v>1103349</v>
       </c>
       <c r="G36" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="H36" s="33" t="s">
-        <v>266</v>
-      </c>
       <c r="I36" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
@@ -3655,16 +3658,16 @@
         <v>2206698</v>
       </c>
       <c r="G37" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="H37" s="33" t="s">
-        <v>268</v>
-      </c>
       <c r="I37" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -3693,16 +3696,16 @@
         <v>3784164</v>
       </c>
       <c r="G38" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="H38" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="H38" s="33" t="s">
-        <v>270</v>
-      </c>
       <c r="I38" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
@@ -3731,16 +3734,16 @@
         <v>1058929.5</v>
       </c>
       <c r="G39" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="H39" s="33" t="s">
-        <v>272</v>
-      </c>
       <c r="I39" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
@@ -3769,16 +3772,16 @@
         <v>1019983.5</v>
       </c>
       <c r="G40" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="H40" s="33" t="s">
-        <v>274</v>
-      </c>
       <c r="I40" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -3792,7 +3795,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>1</v>
@@ -3807,16 +3810,16 @@
         <v>1059112.5</v>
       </c>
       <c r="G41" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="H41" s="33" t="s">
-        <v>276</v>
-      </c>
       <c r="I41" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -3830,7 +3833,7 @@
         <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>1</v>
@@ -3845,16 +3848,16 @@
         <v>1059112.5</v>
       </c>
       <c r="G42" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="H42" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="H42" s="33" t="s">
-        <v>278</v>
-      </c>
       <c r="I42" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -3883,16 +3886,16 @@
         <v>1615141.5</v>
       </c>
       <c r="G43" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="H43" s="33" t="s">
-        <v>280</v>
-      </c>
       <c r="I43" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -3906,7 +3909,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>1</v>
@@ -3921,16 +3924,16 @@
         <v>2118223.5</v>
       </c>
       <c r="G44" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="H44" s="33" t="s">
-        <v>282</v>
-      </c>
       <c r="I44" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
@@ -3959,16 +3962,16 @@
         <v>1622202</v>
       </c>
       <c r="G45" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H45" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="H45" s="33" t="s">
-        <v>284</v>
-      </c>
       <c r="I45" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
@@ -3982,7 +3985,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>1</v>
@@ -3997,16 +4000,16 @@
         <v>564762</v>
       </c>
       <c r="G46" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H46" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="H46" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="I46" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -4020,7 +4023,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>1</v>
@@ -4035,16 +4038,16 @@
         <v>1059112.5</v>
       </c>
       <c r="G47" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="H47" s="33" t="s">
-        <v>288</v>
-      </c>
       <c r="I47" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
@@ -4073,16 +4076,16 @@
         <v>3704034</v>
       </c>
       <c r="G48" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H48" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="H48" s="33" t="s">
-        <v>290</v>
-      </c>
       <c r="I48" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
@@ -4099,16 +4102,16 @@
       <c r="E49" s="9"/>
       <c r="F49" s="26"/>
       <c r="G49" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H49" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="H49" s="34" t="s">
-        <v>292</v>
-      </c>
       <c r="I49" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
@@ -4122,7 +4125,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>1</v>
@@ -4137,22 +4140,22 @@
         <v>1059112.5</v>
       </c>
       <c r="G50" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="H50" s="33" t="s">
-        <v>294</v>
-      </c>
       <c r="I50" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J50" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L50" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -4167,16 +4170,16 @@
       <c r="E51" s="9"/>
       <c r="F51" s="26"/>
       <c r="G51" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="H51" s="34" t="s">
-        <v>296</v>
-      </c>
       <c r="I51" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
@@ -4205,16 +4208,16 @@
         <v>1010824.5</v>
       </c>
       <c r="G52" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="H52" s="33" t="s">
-        <v>298</v>
-      </c>
       <c r="I52" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -4228,7 +4231,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>1</v>
@@ -4243,34 +4246,34 @@
         <v>564762</v>
       </c>
       <c r="G53" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="H53" s="33" t="s">
-        <v>300</v>
-      </c>
       <c r="I53" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J53" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O53" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="P53" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="N53" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="O53" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="P53" s="20" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4281,16 +4284,16 @@
       <c r="E54" s="9"/>
       <c r="F54" s="26"/>
       <c r="G54" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="H54" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="H54" s="34" t="s">
-        <v>302</v>
-      </c>
       <c r="I54" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
@@ -4307,16 +4310,16 @@
       <c r="E55" s="9"/>
       <c r="F55" s="26"/>
       <c r="G55" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="H55" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="H55" s="33" t="s">
-        <v>304</v>
-      </c>
       <c r="I55" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
@@ -4333,16 +4336,16 @@
       <c r="E56" s="9"/>
       <c r="F56" s="26"/>
       <c r="G56" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="H56" s="34" t="s">
-        <v>306</v>
-      </c>
       <c r="I56" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
@@ -4359,16 +4362,16 @@
       <c r="E57" s="9"/>
       <c r="F57" s="26"/>
       <c r="G57" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="H57" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="H57" s="33" t="s">
-        <v>308</v>
-      </c>
       <c r="I57" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -4397,16 +4400,16 @@
         <v>558780</v>
       </c>
       <c r="G58" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="H58" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="H58" s="33" t="s">
-        <v>310</v>
-      </c>
       <c r="I58" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
@@ -4435,16 +4438,16 @@
         <v>558780</v>
       </c>
       <c r="G59" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="H59" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="H59" s="33" t="s">
-        <v>312</v>
-      </c>
       <c r="I59" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
@@ -4473,16 +4476,16 @@
         <v>1047895.5</v>
       </c>
       <c r="G60" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="H60" s="33" t="s">
-        <v>314</v>
-      </c>
       <c r="I60" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
@@ -4511,16 +4514,16 @@
         <v>1047480</v>
       </c>
       <c r="G61" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="H61" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="H61" s="33" t="s">
-        <v>316</v>
-      </c>
       <c r="I61" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J61" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
@@ -4549,16 +4552,16 @@
         <v>1047480</v>
       </c>
       <c r="G62" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="H62" s="33" t="s">
-        <v>318</v>
-      </c>
       <c r="I62" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J62" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
@@ -4587,16 +4590,16 @@
         <v>557895</v>
       </c>
       <c r="G63" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="H63" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="H63" s="33" t="s">
-        <v>320</v>
-      </c>
       <c r="I63" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -4625,16 +4628,16 @@
         <v>1046236.5</v>
       </c>
       <c r="G64" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="H64" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="H64" s="33" t="s">
-        <v>322</v>
-      </c>
       <c r="I64" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="K64" s="19"/>
       <c r="L64" s="19"/>
@@ -4651,16 +4654,16 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="H65" s="34" t="s">
-        <v>324</v>
-      </c>
       <c r="I65" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
@@ -4689,16 +4692,16 @@
         <v>1046236.5</v>
       </c>
       <c r="G66" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="H66" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="H66" s="33" t="s">
-        <v>326</v>
-      </c>
       <c r="I66" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
@@ -4727,22 +4730,22 @@
         <v>1045225.5</v>
       </c>
       <c r="G67" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="H67" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="H67" s="33" t="s">
-        <v>328</v>
-      </c>
       <c r="I67" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J67" s="18" t="s">
-        <v>156</v>
-      </c>
       <c r="K67" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L67" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="L67" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
@@ -4757,16 +4760,16 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="H68" s="34" t="s">
-        <v>330</v>
-      </c>
       <c r="I68" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
@@ -4783,16 +4786,16 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="H69" s="33" t="s">
-        <v>332</v>
-      </c>
       <c r="I69" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J69" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J69" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -4809,16 +4812,16 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="H70" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="H70" s="34" t="s">
-        <v>334</v>
-      </c>
       <c r="I70" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J70" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J70" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
@@ -4847,22 +4850,22 @@
         <v>1042518</v>
       </c>
       <c r="G71" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="H71" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="H71" s="33" t="s">
-        <v>337</v>
-      </c>
       <c r="I71" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
@@ -4877,16 +4880,16 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="H72" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="H72" s="34" t="s">
-        <v>339</v>
-      </c>
       <c r="I72" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
@@ -4903,16 +4906,16 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="H73" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="H73" s="33" t="s">
-        <v>341</v>
-      </c>
       <c r="I73" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
@@ -4941,16 +4944,16 @@
         <v>555912</v>
       </c>
       <c r="G74" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="H74" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="H74" s="33" t="s">
-        <v>343</v>
-      </c>
       <c r="I74" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
@@ -4979,16 +4982,16 @@
         <v>552451.5</v>
       </c>
       <c r="G75" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="H75" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="H75" s="33" t="s">
-        <v>345</v>
-      </c>
       <c r="I75" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="19"/>
@@ -5017,16 +5020,16 @@
         <v>552615</v>
       </c>
       <c r="G76" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="H76" s="33" t="s">
-        <v>347</v>
-      </c>
       <c r="I76" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
@@ -5055,16 +5058,16 @@
         <v>1032868.5</v>
       </c>
       <c r="G77" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="H77" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="H77" s="33" t="s">
-        <v>349</v>
-      </c>
       <c r="I77" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
@@ -5093,16 +5096,16 @@
         <v>1033051.5</v>
       </c>
       <c r="G78" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="H78" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="H78" s="33" t="s">
-        <v>351</v>
-      </c>
       <c r="I78" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
@@ -5131,16 +5134,16 @@
         <v>9076497</v>
       </c>
       <c r="G79" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="H79" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="H79" s="33" t="s">
-        <v>353</v>
-      </c>
       <c r="I79" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
@@ -5169,16 +5172,16 @@
         <v>4168428</v>
       </c>
       <c r="G80" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="H80" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="H80" s="33" t="s">
-        <v>355</v>
-      </c>
       <c r="I80" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J80" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="J80" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="K80" s="19"/>
       <c r="L80" s="19"/>
@@ -5207,16 +5210,16 @@
         <v>1568343</v>
       </c>
       <c r="G81" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="H81" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="H81" s="33" t="s">
-        <v>357</v>
-      </c>
       <c r="I81" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J81" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J81" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K81" s="19"/>
       <c r="L81" s="19"/>
@@ -5245,16 +5248,16 @@
         <v>1061847</v>
       </c>
       <c r="G82" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="H82" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="H82" s="33" t="s">
-        <v>359</v>
-      </c>
       <c r="I82" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K82" s="19"/>
       <c r="L82" s="19"/>
@@ -5283,16 +5286,16 @@
         <v>2124081</v>
       </c>
       <c r="G83" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="H83" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="H83" s="33" t="s">
-        <v>361</v>
-      </c>
       <c r="I83" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K83" s="19"/>
       <c r="L83" s="19"/>
@@ -5321,16 +5324,16 @@
         <v>1062040.5</v>
       </c>
       <c r="G84" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="H84" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="H84" s="33" t="s">
-        <v>363</v>
-      </c>
       <c r="I84" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
@@ -5359,16 +5362,16 @@
         <v>1061847</v>
       </c>
       <c r="G85" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="H85" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="H85" s="33" t="s">
-        <v>365</v>
-      </c>
       <c r="I85" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J85" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J85" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -5382,7 +5385,7 @@
         <v>61</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>1</v>
@@ -5397,22 +5400,22 @@
         <v>2124081</v>
       </c>
       <c r="G86" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="H86" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="H86" s="33" t="s">
-        <v>367</v>
-      </c>
       <c r="I86" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L86" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M86" s="19"/>
       <c r="N86" s="19"/>
@@ -5427,16 +5430,16 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="H87" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="H87" s="34" t="s">
-        <v>369</v>
-      </c>
       <c r="I87" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
@@ -5453,16 +5456,16 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H88" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="H88" s="33" t="s">
-        <v>371</v>
-      </c>
       <c r="I88" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
@@ -5479,16 +5482,16 @@
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="H89" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="H89" s="34" t="s">
-        <v>373</v>
-      </c>
       <c r="I89" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
@@ -5505,16 +5508,16 @@
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="H90" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="H90" s="33" t="s">
-        <v>375</v>
-      </c>
       <c r="I90" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
@@ -5531,16 +5534,16 @@
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="H91" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="H91" s="34" t="s">
-        <v>377</v>
-      </c>
       <c r="I91" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
@@ -5557,16 +5560,16 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="H92" s="33" t="s">
-        <v>379</v>
-      </c>
       <c r="I92" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
@@ -5583,16 +5586,16 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="H93" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="H93" s="34" t="s">
-        <v>381</v>
-      </c>
       <c r="I93" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
@@ -5609,16 +5612,16 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
@@ -5635,16 +5638,16 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="H95" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="H95" s="34" t="s">
-        <v>384</v>
-      </c>
       <c r="I95" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
@@ -5661,16 +5664,16 @@
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H96" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="H96" s="33" t="s">
-        <v>386</v>
-      </c>
       <c r="I96" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
@@ -5699,16 +5702,16 @@
         <v>1062040.5</v>
       </c>
       <c r="G97" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="H97" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="H97" s="33" t="s">
-        <v>388</v>
-      </c>
       <c r="I97" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K97" s="19"/>
       <c r="L97" s="19"/>
@@ -5722,7 +5725,7 @@
         <v>65</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>1</v>
@@ -5737,16 +5740,16 @@
         <v>1379986.5</v>
       </c>
       <c r="G98" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="H98" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="H98" s="33" t="s">
-        <v>390</v>
-      </c>
       <c r="I98" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K98" s="19"/>
       <c r="L98" s="19"/>
@@ -5775,16 +5778,16 @@
         <v>1052404.5</v>
       </c>
       <c r="G99" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H99" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="H99" s="33" t="s">
-        <v>392</v>
-      </c>
       <c r="I99" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K99" s="19"/>
       <c r="L99" s="19"/>
@@ -5813,16 +5816,16 @@
         <v>1052400</v>
       </c>
       <c r="G100" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="H100" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="H100" s="33" t="s">
-        <v>394</v>
-      </c>
       <c r="I100" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K100" s="19"/>
       <c r="L100" s="19"/>
@@ -5851,16 +5854,16 @@
         <v>2104800</v>
       </c>
       <c r="G101" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="H101" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="H101" s="33" t="s">
-        <v>396</v>
-      </c>
       <c r="I101" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K101" s="19"/>
       <c r="L101" s="19"/>
@@ -5877,10 +5880,10 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="H102" s="34" t="s">
         <v>397</v>
-      </c>
-      <c r="H102" s="34" t="s">
-        <v>398</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="18"/>
@@ -5911,16 +5914,16 @@
         <v>2104800</v>
       </c>
       <c r="G103" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="H103" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="H103" s="33" t="s">
-        <v>400</v>
-      </c>
       <c r="I103" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K103" s="19"/>
       <c r="L103" s="19"/>
@@ -5949,16 +5952,16 @@
         <v>1046707.5</v>
       </c>
       <c r="G104" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="H104" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="H104" s="33" t="s">
-        <v>402</v>
-      </c>
       <c r="I104" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J104" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="J104" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="K104" s="19"/>
       <c r="L104" s="19"/>
@@ -5987,16 +5990,16 @@
         <v>1046707.5</v>
       </c>
       <c r="G105" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H105" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="H105" s="33" t="s">
-        <v>404</v>
-      </c>
       <c r="I105" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K105" s="19"/>
       <c r="L105" s="19"/>
@@ -6025,16 +6028,16 @@
         <v>1046509.5</v>
       </c>
       <c r="G106" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H106" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="H106" s="33" t="s">
-        <v>406</v>
-      </c>
       <c r="I106" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
@@ -6051,16 +6054,16 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="H107" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="H107" s="34" t="s">
-        <v>408</v>
-      </c>
       <c r="I107" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K107" s="19"/>
       <c r="L107" s="19"/>
@@ -6089,16 +6092,16 @@
         <v>3125353.5</v>
       </c>
       <c r="G108" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="H108" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="H108" s="33" t="s">
-        <v>410</v>
-      </c>
       <c r="I108" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K108" s="19"/>
       <c r="L108" s="19"/>
@@ -6127,16 +6130,16 @@
         <v>1461276</v>
       </c>
       <c r="G109" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="H109" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="H109" s="33" t="s">
-        <v>412</v>
-      </c>
       <c r="I109" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J109" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K109" s="19"/>
       <c r="L109" s="19"/>
@@ -6165,16 +6168,16 @@
         <v>347581.5</v>
       </c>
       <c r="G110" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H110" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="H110" s="33" t="s">
-        <v>414</v>
-      </c>
       <c r="I110" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J110" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K110" s="19"/>
       <c r="L110" s="19"/>
@@ -6191,16 +6194,16 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="H111" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="H111" s="34" t="s">
-        <v>416</v>
-      </c>
       <c r="I111" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J111" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K111" s="19"/>
       <c r="L111" s="19"/>
@@ -6229,16 +6232,16 @@
         <v>1042749</v>
       </c>
       <c r="G112" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="H112" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="H112" s="33" t="s">
-        <v>418</v>
-      </c>
       <c r="I112" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K112" s="19"/>
       <c r="L112" s="19"/>
@@ -6267,16 +6270,16 @@
         <v>3128247</v>
       </c>
       <c r="G113" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="H113" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="H113" s="33" t="s">
-        <v>420</v>
-      </c>
       <c r="I113" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J113" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K113" s="19"/>
       <c r="L113" s="19"/>
@@ -6305,16 +6308,16 @@
         <v>1038388.5</v>
       </c>
       <c r="G114" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="H114" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="H114" s="33" t="s">
-        <v>422</v>
-      </c>
       <c r="I114" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J114" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K114" s="19"/>
       <c r="L114" s="19"/>
@@ -6343,16 +6346,16 @@
         <v>2063884.5</v>
       </c>
       <c r="G115" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="H115" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="H115" s="33" t="s">
-        <v>424</v>
-      </c>
       <c r="I115" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K115" s="27"/>
       <c r="L115" s="19"/>
@@ -6381,16 +6384,16 @@
         <v>551133</v>
       </c>
       <c r="G116" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="H116" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="H116" s="33" t="s">
-        <v>426</v>
-      </c>
       <c r="I116" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K116" s="27"/>
       <c r="L116" s="19"/>
@@ -6404,7 +6407,7 @@
         <v>84</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>1</v>
@@ -6419,16 +6422,16 @@
         <v>1033374</v>
       </c>
       <c r="G117" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="H117" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="H117" s="33" t="s">
-        <v>428</v>
-      </c>
       <c r="I117" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J117" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K117" s="27"/>
       <c r="L117" s="19"/>
@@ -6457,16 +6460,16 @@
         <v>551133</v>
       </c>
       <c r="G118" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="H118" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H118" s="33" t="s">
-        <v>430</v>
-      </c>
       <c r="I118" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K118" s="27"/>
       <c r="L118" s="19"/>
@@ -6483,16 +6486,16 @@
       <c r="E119" s="9"/>
       <c r="F119" s="26"/>
       <c r="G119" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="H119" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="H119" s="34" t="s">
-        <v>432</v>
-      </c>
       <c r="I119" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K119" s="27"/>
       <c r="L119" s="19"/>
@@ -6521,16 +6524,16 @@
         <v>1994685</v>
       </c>
       <c r="G120" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="H120" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="H120" s="33" t="s">
-        <v>434</v>
-      </c>
       <c r="I120" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K120" s="27"/>
       <c r="L120" s="19"/>
@@ -6547,16 +6550,16 @@
       <c r="E121" s="9"/>
       <c r="F121" s="26"/>
       <c r="G121" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="H121" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="H121" s="34" t="s">
-        <v>436</v>
-      </c>
       <c r="I121" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K121" s="27"/>
       <c r="L121" s="19"/>
@@ -6573,16 +6576,16 @@
       <c r="E122" s="9"/>
       <c r="F122" s="26"/>
       <c r="G122" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="H122" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="H122" s="33" t="s">
-        <v>438</v>
-      </c>
       <c r="I122" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K122" s="27"/>
       <c r="L122" s="19"/>
@@ -6599,16 +6602,16 @@
       <c r="E123" s="9"/>
       <c r="F123" s="26"/>
       <c r="G123" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="H123" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="H123" s="34" t="s">
-        <v>440</v>
-      </c>
       <c r="I123" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J123" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K123" s="27"/>
       <c r="L123" s="19"/>
@@ -6625,16 +6628,16 @@
       <c r="E124" s="9"/>
       <c r="F124" s="26"/>
       <c r="G124" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="H124" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="H124" s="33" t="s">
-        <v>442</v>
-      </c>
       <c r="I124" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J124" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K124" s="27"/>
       <c r="L124" s="19"/>
@@ -6651,16 +6654,16 @@
       <c r="E125" s="9"/>
       <c r="F125" s="26"/>
       <c r="G125" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="H125" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="H125" s="34" t="s">
-        <v>444</v>
-      </c>
       <c r="I125" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J125" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K125" s="27"/>
       <c r="L125" s="19"/>
@@ -6677,16 +6680,16 @@
       <c r="E126" s="9"/>
       <c r="F126" s="26"/>
       <c r="G126" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="H126" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="H126" s="33" t="s">
-        <v>446</v>
-      </c>
       <c r="I126" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K126" s="27"/>
       <c r="L126" s="19"/>
@@ -6700,7 +6703,7 @@
         <v>87</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>1</v>
@@ -6715,16 +6718,16 @@
         <v>1027875</v>
       </c>
       <c r="G127" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="H127" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="H127" s="33" t="s">
-        <v>448</v>
-      </c>
       <c r="I127" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K127" s="27"/>
       <c r="L127" s="19"/>
@@ -6753,16 +6756,16 @@
         <v>999697.5</v>
       </c>
       <c r="G128" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="H128" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="H128" s="33" t="s">
-        <v>452</v>
-      </c>
       <c r="I128" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K128" s="27"/>
       <c r="L128" s="19"/>
@@ -6791,16 +6794,16 @@
         <v>2055759</v>
       </c>
       <c r="G129" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="H129" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="H129" s="33" t="s">
-        <v>450</v>
-      </c>
       <c r="I129" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J129" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K129" s="27"/>
       <c r="L129" s="19"/>
@@ -6829,16 +6832,16 @@
         <v>1027681.5</v>
       </c>
       <c r="G130" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="H130" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H130" s="33" t="s">
-        <v>454</v>
-      </c>
       <c r="I130" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J130" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K130" s="27"/>
       <c r="L130" s="19"/>
@@ -6855,16 +6858,16 @@
       <c r="E131" s="9"/>
       <c r="F131" s="26"/>
       <c r="G131" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="H131" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="H131" s="34" t="s">
-        <v>456</v>
-      </c>
       <c r="I131" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K131" s="27"/>
       <c r="L131" s="19"/>
@@ -6893,22 +6896,22 @@
         <v>1027875</v>
       </c>
       <c r="G132" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="H132" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="H132" s="34" t="s">
-        <v>458</v>
-      </c>
       <c r="I132" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J132" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J132" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="K132" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
@@ -6923,16 +6926,16 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="H133" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="H133" s="33" t="s">
+      <c r="I133" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J133" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="I133" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="J133" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="K133" s="20"/>
       <c r="L133" s="20"/>
@@ -6963,10 +6966,10 @@
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
       <c r="I134" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J134" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="J134" s="18" t="s">
-        <v>191</v>
       </c>
       <c r="K134" s="19"/>
       <c r="L134" s="19"/>
@@ -6995,16 +6998,16 @@
         <v>1027681.5</v>
       </c>
       <c r="G135" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="H135" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="H135" s="33" t="s">
-        <v>463</v>
-      </c>
       <c r="I135" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J135" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K135" s="19"/>
       <c r="L135" s="19"/>
@@ -7033,16 +7036,16 @@
         <v>5139375</v>
       </c>
       <c r="G136" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="H136" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="H136" s="33" t="s">
-        <v>465</v>
-      </c>
       <c r="I136" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J136" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K136" s="19"/>
       <c r="L136" s="19"/>
@@ -7056,7 +7059,7 @@
         <v>101</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>1</v>
@@ -7071,16 +7074,16 @@
         <v>2044438.5</v>
       </c>
       <c r="G137" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="H137" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="H137" s="33" t="s">
-        <v>467</v>
-      </c>
       <c r="I137" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J137" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K137" s="31"/>
       <c r="L137" s="31"/>
@@ -7109,16 +7112,16 @@
         <v>4076559</v>
       </c>
       <c r="G138" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="H138" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="H138" s="33" t="s">
-        <v>469</v>
-      </c>
       <c r="I138" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K138" s="19"/>
       <c r="L138" s="19"/>
@@ -7147,16 +7150,16 @@
         <v>2037391.5</v>
       </c>
       <c r="G139" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="H139" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="H139" s="33" t="s">
-        <v>471</v>
-      </c>
       <c r="I139" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K139" s="19"/>
       <c r="L139" s="19"/>
@@ -7185,16 +7188,16 @@
         <v>2027788.5</v>
       </c>
       <c r="G140" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="H140" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="H140" s="33" t="s">
-        <v>473</v>
-      </c>
       <c r="I140" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J140" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K140" s="19"/>
       <c r="L140" s="19"/>
@@ -7223,16 +7226,16 @@
         <v>1488465</v>
       </c>
       <c r="G141" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="H141" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="H141" s="33" t="s">
-        <v>475</v>
-      </c>
       <c r="I141" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J141" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K141" s="19"/>
       <c r="L141" s="19"/>
@@ -7261,16 +7264,16 @@
         <v>999697.5</v>
       </c>
       <c r="G142" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="H142" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="H142" s="33" t="s">
-        <v>477</v>
-      </c>
       <c r="I142" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J142" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K142" s="19"/>
       <c r="L142" s="19"/>
@@ -7287,16 +7290,16 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="H143" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="H143" s="34" t="s">
-        <v>479</v>
-      </c>
       <c r="I143" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J143" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K143" s="19"/>
       <c r="L143" s="19"/>
@@ -7325,16 +7328,16 @@
         <v>1007784</v>
       </c>
       <c r="G144" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="H144" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="H144" s="33" t="s">
-        <v>481</v>
-      </c>
       <c r="I144" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J144" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
@@ -7363,16 +7366,16 @@
         <v>1003387.5</v>
       </c>
       <c r="G145" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="H145" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="H145" s="33" t="s">
-        <v>483</v>
-      </c>
       <c r="I145" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J145" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K145" s="19"/>
       <c r="L145" s="19"/>
@@ -7401,16 +7404,16 @@
         <v>334461</v>
       </c>
       <c r="G146" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="H146" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="H146" s="33" t="s">
-        <v>485</v>
-      </c>
       <c r="I146" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J146" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K146" s="19"/>
       <c r="L146" s="19"/>
@@ -7439,16 +7442,16 @@
         <v>1003194</v>
       </c>
       <c r="G147" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="H147" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="H147" s="33" t="s">
-        <v>487</v>
-      </c>
       <c r="I147" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K147" s="19"/>
       <c r="L147" s="19"/>
@@ -7465,16 +7468,16 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="H148" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="H148" s="34" t="s">
-        <v>489</v>
-      </c>
       <c r="I148" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K148" s="19"/>
       <c r="L148" s="19"/>
@@ -7491,16 +7494,16 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="H149" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="H149" s="33" t="s">
-        <v>491</v>
-      </c>
       <c r="I149" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J149" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K149" s="19"/>
       <c r="L149" s="19"/>
@@ -7517,16 +7520,16 @@
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="H150" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="H150" s="34" t="s">
-        <v>493</v>
-      </c>
       <c r="I150" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J150" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
@@ -7555,16 +7558,16 @@
         <v>334461</v>
       </c>
       <c r="G151" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="H151" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="H151" s="33" t="s">
-        <v>495</v>
-      </c>
       <c r="I151" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J151" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J151" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
@@ -7581,16 +7584,16 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="H152" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="H152" s="34" t="s">
-        <v>497</v>
-      </c>
       <c r="I152" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J152" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J152" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K152" s="19"/>
       <c r="L152" s="19"/>
@@ -7619,16 +7622,16 @@
         <v>1981395</v>
       </c>
       <c r="G153" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="H153" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="H153" s="33" t="s">
-        <v>499</v>
-      </c>
       <c r="I153" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J153" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K153" s="19"/>
       <c r="L153" s="19"/>
@@ -7657,16 +7660,16 @@
         <v>988945.5</v>
       </c>
       <c r="G154" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="H154" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="H154" s="33" t="s">
-        <v>501</v>
-      </c>
       <c r="I154" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J154" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K154" s="19"/>
       <c r="L154" s="19"/>
@@ -7680,7 +7683,7 @@
         <v>117</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>1</v>
@@ -7695,16 +7698,16 @@
         <v>987442.5</v>
       </c>
       <c r="G155" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="H155" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="H155" s="33" t="s">
-        <v>503</v>
-      </c>
       <c r="I155" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J155" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K155" s="19"/>
       <c r="L155" s="19"/>
@@ -7733,16 +7736,16 @@
         <v>1975270.5</v>
       </c>
       <c r="G156" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="H156" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="H156" s="33" t="s">
-        <v>505</v>
-      </c>
       <c r="I156" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J156" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K156" s="19"/>
       <c r="L156" s="19"/>
@@ -7756,7 +7759,7 @@
         <v>119</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>1</v>
@@ -7771,16 +7774,16 @@
         <v>987442.5</v>
       </c>
       <c r="G157" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="H157" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="H157" s="33" t="s">
-        <v>507</v>
-      </c>
       <c r="I157" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J157" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K157" s="19"/>
       <c r="L157" s="19"/>
@@ -7809,16 +7812,16 @@
         <v>966814.5</v>
       </c>
       <c r="G158" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="H158" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="H158" s="33" t="s">
-        <v>509</v>
-      </c>
       <c r="I158" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J158" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K158" s="19"/>
       <c r="L158" s="19"/>
@@ -7847,16 +7850,16 @@
         <v>515529</v>
       </c>
       <c r="G159" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="H159" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="H159" s="33" t="s">
-        <v>511</v>
-      </c>
       <c r="I159" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J159" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="J159" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="K159" s="19"/>
       <c r="L159" s="19"/>
@@ -7885,16 +7888,16 @@
         <v>515529</v>
       </c>
       <c r="G160" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="H160" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="H160" s="33" t="s">
-        <v>513</v>
-      </c>
       <c r="I160" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J160" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J160" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K160" s="19"/>
       <c r="L160" s="19"/>
@@ -7911,16 +7914,16 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="H161" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="H161" s="34" t="s">
-        <v>515</v>
-      </c>
       <c r="I161" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J161" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J161" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K161" s="19"/>
       <c r="L161" s="19"/>
@@ -7937,16 +7940,16 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="H162" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="H162" s="33" t="s">
-        <v>517</v>
-      </c>
       <c r="I162" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J162" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J162" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K162" s="19"/>
       <c r="L162" s="19"/>
@@ -7975,16 +7978,16 @@
         <v>966810</v>
       </c>
       <c r="G163" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="H163" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="H163" s="33" t="s">
-        <v>519</v>
-      </c>
       <c r="I163" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K163" s="19"/>
       <c r="L163" s="19"/>
@@ -8013,16 +8016,16 @@
         <v>966810</v>
       </c>
       <c r="G164" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="H164" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="H164" s="33" t="s">
-        <v>521</v>
-      </c>
       <c r="I164" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K164" s="19"/>
       <c r="L164" s="19"/>
@@ -8051,22 +8054,22 @@
         <v>964014</v>
       </c>
       <c r="G165" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="H165" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="H165" s="34" t="s">
-        <v>523</v>
-      </c>
       <c r="I165" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J165" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="K165" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L165" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="K165" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L165" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="M165" s="19"/>
       <c r="N165" s="19"/>
@@ -8081,16 +8084,16 @@
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="H166" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="H166" s="33" t="s">
-        <v>525</v>
-      </c>
       <c r="I166" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K166" s="18"/>
       <c r="L166" s="18"/>
@@ -8107,16 +8110,16 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="H167" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="H167" s="34" t="s">
-        <v>527</v>
-      </c>
       <c r="I167" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J167" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K167" s="18"/>
       <c r="L167" s="18"/>
@@ -8133,16 +8136,16 @@
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="H168" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="H168" s="33" t="s">
-        <v>529</v>
-      </c>
       <c r="I168" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J168" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K168" s="18"/>
       <c r="L168" s="18"/>
@@ -8171,16 +8174,16 @@
         <v>512760</v>
       </c>
       <c r="G169" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="H169" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="H169" s="33" t="s">
-        <v>531</v>
-      </c>
       <c r="I169" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J169" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K169" s="19"/>
       <c r="L169" s="19"/>
@@ -8209,16 +8212,16 @@
         <v>960132</v>
       </c>
       <c r="G170" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="H170" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="H170" s="33" t="s">
-        <v>533</v>
-      </c>
       <c r="I170" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J170" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K170" s="19"/>
       <c r="L170" s="19"/>
@@ -8247,16 +8250,16 @@
         <v>512071.5</v>
       </c>
       <c r="G171" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="H171" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="H171" s="33" t="s">
-        <v>535</v>
-      </c>
       <c r="I171" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J171" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K171" s="19"/>
       <c r="L171" s="19"/>
@@ -8270,7 +8273,7 @@
         <v>131</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>1</v>
@@ -8285,16 +8288,16 @@
         <v>507265.5</v>
       </c>
       <c r="G172" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="H172" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="H172" s="33" t="s">
-        <v>537</v>
-      </c>
       <c r="I172" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J172" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="J172" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="K172" s="19"/>
       <c r="L172" s="19"/>
@@ -8311,7 +8314,7 @@
         <v>95</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D173" s="11">
         <v>1005252545</v>
@@ -8323,16 +8326,16 @@
         <v>1902642</v>
       </c>
       <c r="G173" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="H173" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="H173" s="33" t="s">
-        <v>539</v>
-      </c>
       <c r="I173" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J173" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K173" s="19"/>
       <c r="L173" s="19"/>
@@ -8349,16 +8352,16 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
       <c r="G174" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="H174" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="H174" s="34" t="s">
-        <v>541</v>
-      </c>
       <c r="I174" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J174" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K174" s="19"/>
       <c r="L174" s="19"/>
@@ -8375,16 +8378,16 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="H175" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="H175" s="33" t="s">
-        <v>543</v>
-      </c>
       <c r="I175" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J175" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K175" s="19"/>
       <c r="L175" s="19"/>
@@ -8413,16 +8416,16 @@
         <v>317380.5</v>
       </c>
       <c r="G176" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="H176" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="H176" s="33" t="s">
-        <v>545</v>
-      </c>
       <c r="I176" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J176" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K176" s="19"/>
       <c r="L176" s="19"/>
@@ -8451,16 +8454,16 @@
         <v>505872</v>
       </c>
       <c r="G177" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="H177" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="H177" s="33" t="s">
-        <v>547</v>
-      </c>
       <c r="I177" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J177" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K177" s="19"/>
       <c r="L177" s="19"/>
@@ -8489,16 +8492,16 @@
         <v>507706.5</v>
       </c>
       <c r="G178" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="H178" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="H178" s="33" t="s">
-        <v>549</v>
-      </c>
       <c r="I178" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J178" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K178" s="19"/>
       <c r="L178" s="19"/>
@@ -8527,16 +8530,16 @@
         <v>952141.5</v>
       </c>
       <c r="G179" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="H179" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="H179" s="33" t="s">
-        <v>551</v>
-      </c>
       <c r="I179" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J179" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
@@ -8553,16 +8556,16 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="H180" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="H180" s="34" t="s">
-        <v>553</v>
-      </c>
       <c r="I180" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J180" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
@@ -8591,16 +8594,16 @@
         <v>253621.5</v>
       </c>
       <c r="G181" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="H181" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="H181" s="33" t="s">
-        <v>555</v>
-      </c>
       <c r="I181" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J181" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
@@ -8631,16 +8634,16 @@
         <v>1205763</v>
       </c>
       <c r="G182" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="H182" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="H182" s="33" t="s">
-        <v>557</v>
-      </c>
       <c r="I182" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J182" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
@@ -8669,16 +8672,16 @@
         <v>951280.5</v>
       </c>
       <c r="G183" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="H183" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="H183" s="33" t="s">
-        <v>559</v>
-      </c>
       <c r="I183" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J183" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K183" s="19"/>
       <c r="L183" s="19"/>
@@ -8707,16 +8710,16 @@
         <v>1902570</v>
       </c>
       <c r="G184" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="H184" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="H184" s="33" t="s">
-        <v>561</v>
-      </c>
       <c r="I184" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J184" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K184" s="19"/>
       <c r="L184" s="19"/>
@@ -8733,16 +8736,16 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="H185" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="H185" s="34" t="s">
-        <v>563</v>
-      </c>
       <c r="I185" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J185" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K185" s="19"/>
       <c r="L185" s="19"/>
@@ -8771,16 +8774,16 @@
         <v>1893979.5</v>
       </c>
       <c r="G186" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="H186" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="H186" s="33" t="s">
-        <v>565</v>
-      </c>
       <c r="I186" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J186" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K186" s="19"/>
       <c r="L186" s="19"/>
@@ -8809,16 +8812,16 @@
         <v>252364.5</v>
       </c>
       <c r="G187" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="H187" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="H187" s="33" t="s">
-        <v>567</v>
-      </c>
       <c r="I187" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J187" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K187" s="19"/>
       <c r="L187" s="19"/>
@@ -8832,7 +8835,7 @@
         <v>146</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>1</v>
@@ -8847,16 +8850,16 @@
         <v>504730.5</v>
       </c>
       <c r="G188" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="H188" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="H188" s="33" t="s">
-        <v>569</v>
-      </c>
       <c r="I188" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J188" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K188" s="19"/>
       <c r="L188" s="19"/>
@@ -8870,7 +8873,7 @@
         <v>147</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>1</v>
@@ -8885,16 +8888,16 @@
         <v>315235.5</v>
       </c>
       <c r="G189" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="H189" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="H189" s="33" t="s">
-        <v>571</v>
-      </c>
       <c r="I189" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J189" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="J189" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="K189" s="19"/>
       <c r="L189" s="19"/>
@@ -8911,10 +8914,10 @@
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H190" s="34" t="s">
         <v>572</v>
-      </c>
-      <c r="H190" s="34" t="s">
-        <v>573</v>
       </c>
       <c r="I190" s="18"/>
       <c r="J190" s="18"/>
@@ -8930,7 +8933,7 @@
         <v>149</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>1</v>
@@ -8945,16 +8948,16 @@
         <v>1864081.5</v>
       </c>
       <c r="G191" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="H191" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="H191" s="33" t="s">
-        <v>575</v>
-      </c>
       <c r="I191" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J191" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="J191" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="K191" s="19"/>
       <c r="L191" s="19"/>
@@ -8983,16 +8986,16 @@
         <v>931852.5</v>
       </c>
       <c r="G192" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="H192" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="H192" s="33" t="s">
-        <v>577</v>
-      </c>
       <c r="I192" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J192" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K192" s="19"/>
       <c r="L192" s="19"/>
@@ -9023,10 +9026,10 @@
       <c r="G193" s="15"/>
       <c r="H193" s="15"/>
       <c r="I193" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J193" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K193" s="19"/>
       <c r="L193" s="19"/>
@@ -9055,16 +9058,16 @@
         <v>492879</v>
       </c>
       <c r="G194" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="H194" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="H194" s="33" t="s">
-        <v>579</v>
-      </c>
       <c r="I194" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J194" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K194" s="19"/>
       <c r="L194" s="19"/>
@@ -9093,16 +9096,16 @@
         <v>1857909</v>
       </c>
       <c r="G195" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="H195" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="H195" s="33" t="s">
-        <v>581</v>
-      </c>
       <c r="I195" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J195" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K195" s="19"/>
       <c r="L195" s="19"/>
@@ -9131,16 +9134,16 @@
         <v>896208</v>
       </c>
       <c r="G196" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="H196" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="H196" s="33" t="s">
-        <v>583</v>
-      </c>
       <c r="I196" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J196" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J196" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K196" s="19"/>
       <c r="L196" s="19"/>
@@ -9157,16 +9160,16 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="H197" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="H197" s="34" t="s">
-        <v>585</v>
-      </c>
       <c r="I197" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J197" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="J197" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="K197" s="19"/>
       <c r="L197" s="19"/>
@@ -9180,7 +9183,7 @@
         <v>155</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>1</v>
@@ -9195,16 +9198,16 @@
         <v>1857909</v>
       </c>
       <c r="G198" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="H198" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="H198" s="33" t="s">
-        <v>587</v>
-      </c>
       <c r="I198" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J198" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K198" s="19"/>
       <c r="L198" s="19"/>
@@ -9221,16 +9224,16 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="H199" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="H199" s="34" t="s">
-        <v>589</v>
-      </c>
       <c r="I199" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J199" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K199" s="19"/>
       <c r="L199" s="19"/>
@@ -9244,7 +9247,7 @@
         <v>157</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>1</v>
@@ -9259,16 +9262,16 @@
         <v>23435358</v>
       </c>
       <c r="G200" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="H200" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="H200" s="33" t="s">
-        <v>591</v>
-      </c>
       <c r="I200" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J200" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K200" s="19"/>
       <c r="L200" s="19"/>
@@ -9285,16 +9288,16 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="H201" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="H201" s="34" t="s">
-        <v>593</v>
-      </c>
       <c r="I201" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J201" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K201" s="19"/>
       <c r="L201" s="19"/>
@@ -9311,16 +9314,16 @@
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="H202" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="H202" s="33" t="s">
-        <v>595</v>
-      </c>
       <c r="I202" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J202" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K202" s="19"/>
       <c r="L202" s="19"/>
@@ -9337,16 +9340,16 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="H203" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="H203" s="34" t="s">
-        <v>597</v>
-      </c>
       <c r="I203" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J203" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K203" s="19"/>
       <c r="L203" s="19"/>
@@ -9360,7 +9363,7 @@
         <v>158</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>1</v>
@@ -9375,16 +9378,16 @@
         <v>39891085.5</v>
       </c>
       <c r="G204" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="H204" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="H204" s="33" t="s">
-        <v>599</v>
-      </c>
       <c r="I204" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J204" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K204" s="19"/>
       <c r="L204" s="19"/>
@@ -9399,16 +9402,16 @@
       <c r="E205" s="28"/>
       <c r="F205" s="28"/>
       <c r="G205" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="H205" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="H205" s="34" t="s">
-        <v>601</v>
-      </c>
       <c r="I205" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J205" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9417,16 +9420,16 @@
       <c r="E206" s="28"/>
       <c r="F206" s="28"/>
       <c r="G206" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="H206" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="H206" s="33" t="s">
-        <v>603</v>
-      </c>
       <c r="I206" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J206" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9435,16 +9438,16 @@
       <c r="E207" s="28"/>
       <c r="F207" s="28"/>
       <c r="G207" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="H207" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="H207" s="34" t="s">
-        <v>605</v>
-      </c>
       <c r="I207" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J207" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">

--- a/datos/embargo_bienes_18_19.xlsx
+++ b/datos/embargo_bienes_18_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5139e4ce12c5013/Desktop/proyecto practica/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{C826AD8B-2D49-4F5C-AC36-F75C6D49E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCFC807-ED10-4B3F-88A4-E16DBD197486}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{C826AD8B-2D49-4F5C-AC36-F75C6D49E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9FD17E-A074-4EEC-AE21-13B201263472}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95CD67FF-B2A5-4510-A704-867DA876F828}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="606">
   <si>
     <t>Nombre_Deudor</t>
   </si>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54090702-91E1-4888-BA2E-76696B8906A4}">
   <dimension ref="A1:P208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5885,8 +5885,12 @@
       <c r="H102" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
+      <c r="I102" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="K102" s="19"/>
       <c r="L102" s="19"/>
       <c r="M102" s="19"/>
@@ -8919,8 +8923,12 @@
       <c r="H190" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="I190" s="18"/>
-      <c r="J190" s="18"/>
+      <c r="I190" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J190" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="K190" s="19"/>
       <c r="L190" s="19"/>
       <c r="M190" s="19"/>
